--- a/LuBan/Config/Datas/MonsterData.xlsx
+++ b/LuBan/Config/Datas/MonsterData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19860" windowHeight="7230"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1095,7 +1095,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1193,7 +1193,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="5">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F4" s="5">
         <v>100</v>
@@ -1226,7 +1226,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="5">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="F5" s="5">
         <v>100</v>

--- a/LuBan/Config/Datas/MonsterData.xlsx
+++ b/LuBan/Config/Datas/MonsterData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="22365" windowHeight="11085"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>##</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>KLT</t>
+  </si>
+  <si>
+    <t>Red</t>
   </si>
 </sst>
 </file>
@@ -1092,13 +1095,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
@@ -1244,6 +1247,38 @@
         <v>6</v>
       </c>
       <c r="K5" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="5">
+        <v>11001</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="5">
+        <v>10000</v>
+      </c>
+      <c r="F6" s="5">
+        <v>100</v>
+      </c>
+      <c r="G6" s="5">
+        <v>100</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>4</v>
+      </c>
+      <c r="K6" s="5">
         <v>6</v>
       </c>
     </row>

--- a/LuBan/Config/Datas/MonsterData.xlsx
+++ b/LuBan/Config/Datas/MonsterData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22365" windowHeight="11085"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1098,7 +1098,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1261,7 +1261,7 @@
         <v>22</v>
       </c>
       <c r="E6" s="5">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="F6" s="5">
         <v>100</v>

--- a/LuBan/Config/Datas/MonsterData.xlsx
+++ b/LuBan/Config/Datas/MonsterData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowWidth="21300" windowHeight="6480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>##</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Red</t>
+  </si>
+  <si>
+    <t>Monk</t>
   </si>
 </sst>
 </file>
@@ -1095,13 +1098,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
@@ -1279,6 +1282,38 @@
         <v>4</v>
       </c>
       <c r="K6" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7">
+        <v>11002</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>2000</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
         <v>6</v>
       </c>
     </row>
